--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/35_Gümüşhane_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/35_Gümüşhane_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD62A0D0-E5C9-4048-91A8-75A36916A396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1341F532-B0B6-4853-A09C-956A0292CAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{77976C1D-1E97-4D12-A6DC-48FF7AFD987A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{C833FFCA-000D-41D9-926E-36BA9D390684}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{AB05983A-DE5E-4B3A-8211-727AA2EB3C9D}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{325452CC-61D3-43F7-AC89-10D4BA441110}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6E9DE6E0-BFA3-49F0-A371-6AA43AFC79EF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E4B78BB2-13E1-456D-BE7D-86BA126EA83B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{06C18E70-F1DA-4310-9B5C-729B8A09F52E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{534B145C-60DC-404C-9940-72341E9C0368}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5C565286-2036-4F77-A9CB-48DED588DBAF}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7068DF40-FCC8-441C-89C0-793FF398B385}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6D2ED3C6-9603-450C-993E-50C027BFEA75}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{31D3A02A-7895-4E55-8B21-37B483F82B51}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9FE092AD-DFA4-4312-B5B3-5EE3E2504C6A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{459BD3D4-7921-488F-89FB-233461736CBE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{0E6E7484-099B-4A8D-87E8-A1AA7BFEEC16}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{20B0A447-2A94-40C7-BDF1-7A4A01FA9A15}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2347E-466A-4323-AE04-2772F707316C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A82D5E2-1713-45A0-B867-C0AD9622958F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2536,18 +2536,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{837F8762-D1AF-4E94-9985-9EE205F14567}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1442AF7B-0707-4ED1-9F6B-0D04EFD17BC5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11A984BD-B6BB-4EE3-9DC6-39B839F03892}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E4CC4DB-1255-4B6C-BDB1-2E32576AFAA7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8C9E7A9-ECE2-4E5A-93E2-A38B402C3274}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{51237BCA-6135-46A1-A5F9-82471DEA3AA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AC91638-D665-489D-B441-95D4D655FE65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{481E27DD-FBFC-47C1-BF8B-9B2555656B79}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC023160-4DB0-4577-8800-F9428B38EFE0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ABA1EA55-2691-4D45-99CD-93E88446CC06}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{594EB5C2-4987-43FF-9DEA-A591DFEE49B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2B58F66-BCCC-4703-8F9D-63F30BF4C2EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93A1243E-51F9-4FF9-921C-176C7C05AAB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AF8A5BD-5C57-4ADE-A65E-244CAB38CF48}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43F25E67-D3C3-4645-B5C8-3EE6A3159C26}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B85AA1EA-E308-4938-AE5F-F48A4F49C83F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D263C08C-66A8-49C0-8C4B-14DF1506A506}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A482A422-AB52-42E6-9171-08C9DD784648}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D173486-56C1-459D-8CFB-78C0C0EFFFBC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42C9BCD1-94F8-4DF3-B59B-87230D6F6272}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCA4B479-703C-4F2F-83F9-C410DF5E9D16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{643C3B6E-72EE-485B-8969-D24DC7D227C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7EB85EC-3B81-40CD-9688-61A6D4C09268}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E9CAD4C-43E0-42E5-B4B9-5A3EB3B77FE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2560,7 +2560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186B440E-18AE-4082-A4BC-9DF4F7E0419B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB643A04-C1C5-4418-966D-0026CE235C72}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3758,18 +3758,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E7402EE-330A-441D-959F-9D1019ADE185}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92851852-E48F-407F-836C-7C264AAFF20C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9C1BC1C-BE18-414E-8174-DB602AC9E5DE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{014E8449-6FDD-4D6C-BA75-8A834D71FE79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EA91CBB-8C65-43B6-9BCA-C5B796AFD206}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4853B74E-853B-4476-A3D9-D5AF017D3442}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D2DF9C0-8C0D-47C1-B519-262E80A076A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8A967D8-0C0C-4A60-91BF-5835DB5F06CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53471EA1-47FC-4580-B5F2-5DE0852340B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53476ED9-ABD0-4F41-9F8E-822C1372E8F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B467A47D-D059-4A20-8CAA-E58072972F03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA6417E3-0075-4C71-8386-A4A3D069D8E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B98EC70B-2A68-44AA-9A0C-AA28E9EF521C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BE3F133-D2E5-4F33-860D-B3C1DBACF11E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D9790A9-A36D-4809-A419-CD9AFB1C79D9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E639753-20A6-414C-9DD9-0C5709277423}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDD6F57A-08B6-4301-BBA1-5B8930EE98A8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58585E46-15A0-455E-B433-F07F2318D7F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7205B92D-D235-4FC2-B5DA-58E044411CEF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D08E41BD-36BF-4152-9BE1-FF252153A3C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2024034-4E05-4F16-95EC-8FA358722EDC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D086A51A-2D0C-4C5D-992B-C8B7F4E3FA5E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DC9CA07-B07A-48BE-94CC-908C65D3F79B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BE35BC1-4274-4ECA-8CCD-24FA37919537}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3782,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18A4854-AA6B-46AD-838D-86C935EB3D3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8E18FA-3B33-43C1-901E-336D54B08080}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4970,18 +4970,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{690D143A-94EC-4632-9B27-2C6E22C5B838}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB73755D-FE9F-4605-BB6E-AF0060E8EA52}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4F25C81E-E8CA-4B54-B5C8-7DE6E540109B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DFB65452-BF95-4601-BE9C-A3A003151EA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{243FF4C6-E0D6-4387-91FE-DB685D065D87}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E1C5E18-2466-4C48-A35C-C0934D4DBECC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56B83940-19A9-4313-B481-397BC2A2643D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3BD4039-1C4C-496A-908D-27EF7204565C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B748387E-1441-486B-8311-0956A085617A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C62DD7CA-688B-433A-A833-92D4058FCD12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{314408D8-C62F-4A5C-9B07-29E550BEB639}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1557AC66-B272-42FA-A93D-3A47F3E8D249}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC28B7BF-A36D-475F-9340-32A8A62E4A19}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CE26213-48B9-485B-A7CA-99AB532263E7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{84C9B315-6637-4785-9BF0-1F6B0102BBE1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CC6C784E-C85A-45AF-A72D-D1F03C098D37}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0434876C-69F0-4EAD-99A1-6BB9D102DC04}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{52BA6E03-1B2B-4C14-ABD0-A61D41FAE360}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F79A55C2-F9C5-45F3-B882-149A164E16E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BE037CD-3A8D-4C78-8397-2C24638FC066}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9BA19313-6533-438A-B5FE-99F88AE68C0F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8375762-7C5C-4861-959B-3FEF772822BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4A86C8C-1654-46B5-870D-173BBBB738BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEBFDC99-3B63-4DD3-B003-0012471C4468}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4994,7 +4994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8277475-CE06-4401-883B-7A87D301A6E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C75A03-43D7-41F2-8F7A-65796668D5D7}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6176,18 +6176,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EABFC064-B459-4C91-BA7C-2D3EB7D26C10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F18D307-45D8-4A94-9B26-A5163F57352F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9D395149-856F-4CF9-848C-8A0D2E5164CB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6703B868-8397-4AEF-A3B9-BECF302F2C70}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F976BA48-75DA-4A6E-A2E0-6842D1DED88E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B8331052-FB8E-425D-8491-A13DF6D57471}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FE98F49-D736-4F99-A1F4-B541F0F1279E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3E00649-2C25-4123-B791-AFF9D382961C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52785EA0-FF4D-4B0F-ADE2-5518621A2822}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12862494-9BA6-4BB5-BE62-86473E1BA393}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5FC1CFA-70C4-4765-AE9D-85175F495E82}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A206AA44-11EA-410B-AC68-F5F3EAC6C3FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BCAF842-9B8C-4EB4-8AFF-0374BCC48428}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A898780A-3ED3-484F-9A23-6B87771713B5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6989A6C6-483E-40AA-BD04-EEFD4FFE9C5D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D51004C-20A5-4A95-BB0A-325C9472679A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{136853E4-88F4-40E3-AB17-067AA77B3416}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F6394EC-F419-42DB-BB94-9A270718F275}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E983E150-8344-4DE5-B73F-CEB56DA93716}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3C6B9BA-A590-4877-9853-0F89DB006157}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D496792-7ECF-45C3-8F0D-9F0CE86F11B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{386D0C40-DFF0-4992-926D-6A9CD27D19F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC351D6F-FB00-4EA2-8633-2D4798426BEC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30431A3F-94F0-48AB-9ACF-289EE93EF799}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6200,7 +6200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4042E0E-F3CE-4C61-AC66-E4259329CEED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BD5FF3-4994-44C4-972A-A18DDA52F2C0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7421,18 +7421,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B44F63EB-2235-430C-B84B-771E3FF57A79}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6720A8D9-3E79-4328-9611-9135DA96C179}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1195796-0C5C-4BE4-B240-C874A882870F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9F341040-4AA1-4DFD-AFEF-A61A293A1863}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADB85108-8CD9-4F42-B9C6-1D7BB67D4D18}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6416ECF8-A0C3-4C77-82CC-4EC67E4D6F7B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86DA29A6-369C-45AB-80CA-EC6DEB344FF3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FAD8831-2BBD-42C0-AA79-3A836F1D66C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6475F535-9C49-4283-9935-6B0C2DFAFC31}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C6B31BF-2C5A-4E24-9EC5-7600F0C0B882}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41F3C7E6-6598-4C41-9298-7E11494C78FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F40FEB8-DDE3-4696-99A2-A6AEFDFA69D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90FCE7DC-EEF2-4FC6-8ECA-77242E1AEBB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82550556-C62F-4447-B5C9-1BDC8D434C4B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F01D1181-E912-4BFE-B90C-9D96706586A0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{86C6CC2A-973F-4D7B-A46E-14F429D986E3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD3BFB87-3A70-4111-B02C-BD016BCB8165}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E232C665-5F56-4EAC-8ED3-FC0C70DA3137}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBAF602A-8B73-466E-B691-F7DA4130696A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50C38242-AC9A-438F-9F35-5F5B444F26F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{67B0883C-9D2E-4273-84F7-0575841635DC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36701EA5-4A1D-4E8E-AD8F-521CA6560CF6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEB407E3-9BB7-43D0-B2EF-B3150C1A7299}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF3AEC1D-65EC-48A7-923E-CF336FE53C8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7445,7 +7445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66D682E-AA7C-445E-8FBD-07C3D4DA0FC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B3B8DD-3CF9-408F-B86C-1CA839F94B70}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8666,18 +8666,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E40A74B6-967F-4BC4-B920-577BB00BC483}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{734846A0-A152-4C50-AC3F-BC41A7E1945D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{93F0A571-EF80-4D2D-83C3-150FC1F51418}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C2A83EF-F8A9-4C06-9573-1FD8C83FE9B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C0584E3-51DB-4EE8-A97C-17F031395E64}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5127CC54-058B-4705-B9F8-324F04CAF417}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EBD8DFD6-55C9-4B48-B150-24F481428CA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{424DD81F-2514-471C-A103-0EB3F303CCEB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{805AB5E5-86D1-4184-9198-BBCB89A8E401}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA4FDA96-0BFD-4DF4-8EA0-945CCB66C9DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB1B1307-F638-4297-AE3E-66B25D6E8CE6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7051BCD-BBEB-4E0B-A895-408BF947E903}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C4058D6-FE4A-42D9-991D-89C89FF8FEAA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A430CFB0-B87C-4245-8882-0FBD1C01896A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E2C39AE6-1C6C-43D8-BF3F-2D3B8E1B61F9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A20208C-58C0-4834-B428-13A92ACA2B32}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C279EC5C-A34C-4F90-8959-DB7C5A6AF997}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{81AE272C-F907-4AF4-B288-093D9030AAD5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A3388F5-0BB1-4B03-9979-330F35BF53DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E1A029F-EA7F-4062-B17B-37979F718AB2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D661F11-FF10-42FC-A0C7-A71376A0874F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C4F80DB7-1DDA-493C-AC9B-36E0D4D94954}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E748873-1ED3-4270-BC4A-55C19FF994C0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32D9621C-577E-483A-AD0B-6793447A26FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8690,7 +8690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3040BE-B071-466C-815A-EA16F09BC616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7948A-46FA-44E7-A344-160E558D988F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9911,18 +9911,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03D2D688-107B-4224-B700-279CD85907E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{320E21DA-F80F-4C66-94D7-FACFF67FD10D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C23F4D01-4729-4771-BD16-A3F272F28140}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{455F5F1E-0387-49DB-A985-5007A72A3A62}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D5D3FC2-9F95-4CEF-90C4-640A62F8EEF4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1D48780B-9C43-4043-8B3D-E2DF5C7A9C33}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C1AB433-1370-4512-B187-ED34B99EFD3C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{339756A0-1CFF-48D5-9D54-7B05630FF972}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EBAE05E6-5CBD-4C5E-9C8F-10271EC306E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E731DF07-9885-4BC3-A343-C5BED068862F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88CC9410-AED9-439C-90CA-2640350AC688}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{040BDD91-9FD3-45DD-9E63-019C46F97C23}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12A9338B-4332-45A0-9E93-F54B34935E17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73945E2F-8E93-4A92-B89B-CF95636C2859}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2E793AAA-53A7-43D7-BD2C-CC836014DDFA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C20E2ADF-4AEF-4A5A-8BA0-38F6397B0837}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9A7DB06-7604-46EE-A4CE-FA3BF160D4B3}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6DEC1E0F-5B3E-4909-B30D-157A595099B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0629DAD4-AD8B-4B54-B609-47432EC39B74}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B91AFBE-324F-4792-B94E-587F6645C828}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6428FACC-9056-41E7-B7B7-BBC4CF31CA23}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D62C3292-46CA-4F2F-A015-9AC02F7329A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{081BD68F-2D4D-448B-9D17-5B17857B74F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3BA08C7-B6D5-49AB-83CA-FBE59B75DD6C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9935,7 +9935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912EA23C-9D94-4978-AAD4-61952CD24440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAFFA6A-A783-4C1D-83B3-8485FC308014}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11157,18 +11157,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23CA7AE7-314D-4370-A3F9-31136BD09245}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9EA8325-AB17-45AD-8C52-9DBE0FA3A3CC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6EE6E9E9-39D7-42A0-9F3E-726161C3079E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D7C5CC30-8090-40A6-BA4E-185F62CE4C71}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7E57B0F-9638-4D05-8A07-EEA678A3A90F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9F4BBF16-2A0C-4A72-9762-CA24F7E53E27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04FE06CE-8FA3-4427-A25E-AE16132C56B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FC482CC-7AE0-43FA-82A5-00D3B2393755}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BA43429-9209-4AC9-91B9-1F335EFE48EC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9829CED3-84CC-4B3A-9ED2-42B872476A6E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C160285D-239A-41E0-B3AA-478C7626D136}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9433797E-A821-479E-8764-16F4A72E2D84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CE9E628-8516-4355-AFAD-86D4566024F8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F62B7C3-C96B-4818-9F70-F28E1946B09F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34D4E0F4-9C52-4A71-AEF0-6B01D105637D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{037D4160-522E-4ABE-8F2E-A9B670BB456F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF6A333C-181C-45E5-95D4-87CC3BCBBDFD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9FDACAD-F93E-4C67-B582-D357A9858F23}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAE46842-1FF4-4714-830B-DFCF5BF51527}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E5389B8-8334-4DF6-8ACC-EC5B78D637DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A553FAA0-F2C5-4B6E-B331-DF382CECF015}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AAF082F8-9369-41C5-8FC4-76C8C24D4F80}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72FE62F4-7F7A-499C-9546-CDAC8BAFC699}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E259B26F-BE90-48AA-A224-6937E7188C40}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11181,7 +11181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5F8DC2-5691-41F2-97DD-52113A279BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB23164-D09D-47DB-A968-EB18ED5BB1D6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12403,18 +12403,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D637266D-FA62-4942-806A-5C9E91848A10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4FF79A6-0CCE-4A4C-9E61-5AB472C6792C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1CCDCC0-1908-4267-B02B-B92526158EAB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{61006CC8-472A-41DF-87BA-C2DBF73C8974}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4249B3D-EADB-4FA5-A8F5-E2A749042A86}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E9B48A99-6D69-4B0B-B587-F49CD86544C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2C0F928-6A58-4750-B714-AAD2EDB42113}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69E03AD5-30F0-4805-9567-C25D53076E28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3648CDFE-F21A-42AC-814E-CDCC3D3A3212}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B31C2173-74A1-4868-8202-A5AFA84F1B6D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97C7FA64-A333-4BCA-ABC1-D0A2AA8BF140}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{190EA57C-834C-43A7-8144-F5C9CC9E0620}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3289A852-0021-4DD4-AC7A-6E44D66D7B9C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1123E217-0BE5-495F-9858-CC65864D4D43}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{317C4202-41D5-4737-BB86-5D23C66D9551}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{88AD2FAB-6C72-48C4-B127-2D98353C9399}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E2B98B7-86A1-49E3-82F2-372E58562D0B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7645A587-117A-49BD-9439-7387FCDE906B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFEDDE61-2635-49B9-90F7-7D1C40219106}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1C4AE6E-E044-46EB-8159-1DB70D66AE82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6FC5A20-4946-4444-B463-20C95BCA1A4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{09ED05B5-7364-42EF-BEBB-276B81233283}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1958ACE1-DA61-461E-B403-62DEFB746E67}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E648EE0-B179-4091-88CC-1FBA2BFCD7D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12427,7 +12427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F3B9AD-E783-4A1F-AB10-3106C2C86784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107F786E-3CF8-4C98-8C10-2DFB25C4CAF1}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13649,18 +13649,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8889F32A-947C-4261-B6D2-722B2D5E8FFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9BFF908-668A-4A96-B906-8EAFCF556E64}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA2EC28B-F378-47C6-AD23-43BCB33C7F3C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE974028-896F-4FC7-B7A2-F80EA7B97E3F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D06029F7-E4BD-449C-A88C-76926866A269}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D074FE47-2532-4996-A5F9-CFAF90DC9367}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62914B55-45E9-47EA-9514-C8EA9AC3E287}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{389B0E74-7593-419F-9936-E4D02E8AB976}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D1C8C80-24EB-446F-8F8B-B245BC0CA086}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8954D7B7-2482-4499-BEE1-64666E9F8727}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{73F672DA-7699-4EE9-BBF4-43AB9AAB208C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BB41C76-7143-4B4A-916C-82816F209308}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEAE85EF-5A58-4364-BE14-528B5A5F632E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C7845F9-6AF9-4BB9-A1AE-AD5F0849F7B4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB99DAE2-E7D6-46E8-9F0B-98264CC4036B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{564B53EE-C903-47FC-A19C-FB2C1052F090}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28BD9F89-B065-4B95-AD86-E2C8F61C68D8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9A7A61E2-6387-4844-B77E-97C47655DD20}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AF8A3F2-A102-4E1E-B0B7-517471F9AB7D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E9313CE-8B4A-4090-9783-003B47364AA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D69757B7-B7E4-45C8-8A75-AECF6364ED67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8CD870AE-BEC9-4FB9-80E2-59267AA45166}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80C54B74-5EB3-41E1-AFA5-6260DFB217FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E80278A-6439-4CFF-8CB3-FF3427BBFE2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13673,7 +13673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE13B8-3424-4E80-B2E2-50A64FC97DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FB3D7C-10A1-4D4E-BBEB-D3E1633F2344}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14895,18 +14895,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A2F78BE-0646-4207-BC22-69E2DAEC19F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5CFE50C1-4936-4938-B33B-59B649D0FEED}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CF918D4B-2E2E-4B0A-9A79-A01E171118D7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B3EEA6A6-FE2A-47B4-B187-235253219E17}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8820F2A3-2164-49B0-B1B5-75A8DE9EB676}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{930DD011-4FFF-46C6-AFD5-5288CEE593C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26A4D5F7-13F9-4FDB-94AC-AF237B51EC44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11F3D99A-2E03-4A6C-82CF-F2896946BE95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65F51302-91C0-4F8D-B4CE-17697F86AC16}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DA36FCB-7726-425F-B068-DDC88399ECA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D594DA8B-E699-4C42-B325-BBC3B374CB52}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D748B20-934A-42A5-BD4A-EF6142E65B4E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C031F74-FD95-4105-9250-6AB2CD062682}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FA81757-C04E-4B2A-9DFF-FCC768D2F8E1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92AA101F-64F1-41C3-BF98-4F3CD7CDC9C5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C994E4AE-D093-4726-9841-62A4613D0187}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E63B528E-E3F8-46D1-9A94-B213DD38BA57}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DC19EA4D-3DA3-4819-9996-216EF3F79625}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23BC8014-BB49-4F39-B6C6-6380F1CF9144}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BBA1DBD-7AD4-4576-A803-FFFE39258409}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65EB6132-B848-443F-BAA3-C71C69B9049B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F6DA4CD6-5B53-4F35-8EB7-34E807032E15}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97B5E519-1700-4369-98F5-A8FFD1D88640}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6E96E80-2D48-4A3D-93BD-9CF10E56E1F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14919,7 +14919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086750E9-CB2C-481F-8C9A-456674EBB09A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1D65E8-7859-4927-B3D3-2009CD9BF7EB}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16141,18 +16141,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C980032-34F9-4350-87D8-9103928E9C3C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7E670E6-C27B-4C4E-8DF0-40579192D130}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{234F0EA0-9B52-4E6A-A337-511AF3CE9A63}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{73A6647F-078F-4897-931F-4AAA8E18A7FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C0214EB-4815-4F61-BA80-65C6780ED7CE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8061DF60-63B5-462A-89D5-11FA116DF9DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DA23F7C-E9A0-4387-9FAA-5101D1847DD2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3C49D5F-E7C9-496A-959C-72454DF2A02B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0956CA27-9948-4723-8970-3570181BECEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E4BE518E-4F5A-484F-9B23-112D2263E989}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5C87C0E-21E3-405D-A631-95FC32919F72}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9C8C1B1-BB85-4175-90B3-C252665AD516}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44D57AF5-33CA-4C94-878B-1458ABEC8FDE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B662E2D-542A-49C9-AF50-F4F7BD7791B4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F75A31E-2CA3-485B-9FEC-22CEF692FF6B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A0D4C25-4289-4CE3-A74D-35443D204FB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D37BCAD-EE26-466A-955C-2616011D7465}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F51DB5B2-AC65-4571-81CF-C38B56837F07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E059259-7002-4A33-AD44-6785D64DD997}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{946B494E-D9D5-4502-9451-D351DE2CD652}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6AF82CB-5061-4548-97FB-79ABCAF0B556}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F59B689-AB5E-4984-8194-DEB305A4BC7A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{325CBB5F-3B52-4AAB-8098-76B75751EA0A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0163A413-50BD-4264-B98A-08ECA0973206}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
